--- a/procesamiento_datos/datos/procesados/estaciones_ubicacion_2.xlsx
+++ b/procesamiento_datos/datos/procesados/estaciones_ubicacion_2.xlsx
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>etiopia/plaza de la transparencia</t>
+          <t>etiopia plaza de la transparencia</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>viveros/derechos humanos</t>
+          <t>viveros derechos humanos</t>
         </is>
       </c>
     </row>
